--- a/product_image/product_image/18/10/18.여행.xlsx
+++ b/product_image/product_image/18/10/18.여행.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\Kmarket\product_image\product_image\18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\Kmarket\product_image\product_image\18\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8937BBE-4474-442E-BE01-38B07CED0656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFADEA24-507F-4D0B-AFD7-81E745D76F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
